--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:40:30+00:00</t>
+    <t>2022-04-11T16:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:52:02+00:00</t>
+    <t>2022-04-11T17:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:02:35+00:00</t>
+    <t>2022-04-11T17:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:09:19+00:00</t>
+    <t>2022-04-11T17:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:19:31+00:00</t>
+    <t>2022-04-11T17:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">S37 Questionnaire Status (unknown) code system </t>
+    <t>CodeSystem : Questionnaire Status (unknown)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:46:13+00:00</t>
+    <t>2022-04-11T17:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:58:20+00:00</t>
+    <t>2022-04-11T18:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:04:55+00:00</t>
+    <t>2022-04-11T18:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CodeSystem : Questionnaire Status (unknown)</t>
+    <t>CodeSystems : Questionnaire Status (unknown)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:10:40+00:00</t>
+    <t>2022-04-11T18:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:53:32+00:00</t>
+    <t>2022-04-11T19:03:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T19:03:21+00:00</t>
+    <t>2022-04-11T20:24:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:24:48+00:00</t>
+    <t>2022-04-11T20:32:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:32:47+00:00</t>
+    <t>2022-04-11T20:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:39:05+00:00</t>
+    <t>2022-04-11T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:51:46+00:00</t>
+    <t>2022-04-12T16:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:41:17+00:00</t>
+    <t>2022-04-12T16:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:48:09+00:00</t>
+    <t>2022-04-12T16:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:55:17+00:00</t>
+    <t>2022-04-12T16:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:59:25+00:00</t>
+    <t>2022-04-12T17:07:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:07:36+00:00</t>
+    <t>2022-04-12T17:18:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
+++ b/branches/master/CodeSystem-questionnaire-status-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:18:11+00:00</t>
+    <t>2022-04-12T17:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
